--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Antipodean Albatross_Auckland Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Antipodean Albatross_Auckland Islands.xlsx
@@ -3596,13 +3596,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF47819-86CD-407F-BD03-BBE63F70EF05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D305C2-0F28-400A-9E2E-F1F889AE51C0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E8FE06-3DBD-4053-92BB-639E3FFAC2F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{197A1143-AE4F-4AC4-9DA5-EC97C3106936}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{503DC9DA-2242-489D-8897-EA9469D48BD1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B556F6CD-DA9B-447B-8C71-FFCB07B74618}"/>
 </file>